--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_39_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_39_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.5308219560698895, 4.97065864877208]</t>
+          <t>[4.5337069087168445, 4.967773696125125]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.001493307464938809, 0.2844003729890865]</t>
+          <t>[0.0016543322742981204, 0.2842393481797272]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0477287099636885</v>
+        <v>0.04748643330487901</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0477287099636885</v>
+        <v>0.04748643330487901</v>
       </c>
       <c r="W2" t="n">
         <v>5.324764764764858</v>
